--- a/Körlevél_HMKE.xlsx
+++ b/Körlevél_HMKE.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sun_collector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I575327\Documents\Áram projekt\suncollector\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C378F09-6FAC-4BB3-B252-D8E982DD61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="6660" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magánszemély" sheetId="1" r:id="rId1"/>
     <sheet name="Jogi személy" sheetId="3" r:id="rId2"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Irányítószám</t>
   </si>
@@ -187,17 +178,20 @@
     <t>Tervrajz szám</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Próba</t>
+  </si>
+  <si>
+    <t>kis utca 1</t>
+  </si>
+  <si>
+    <t>X Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +213,16 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,13 +281,94 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -475,80 +560,6 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -563,59 +574,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Táblázat1" displayName="Táblázat1" ref="B1:V2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:V2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Táblázat1" displayName="Táblázat1" ref="B1:V3" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="B1:V3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="Irányítószám" dataDxfId="21"/>
-    <tableColumn id="2" name="Település" dataDxfId="20"/>
-    <tableColumn id="3" name="Utca, házszám" dataDxfId="19"/>
-    <tableColumn id="4" name="Magán/jogi személy" dataDxfId="18"/>
-    <tableColumn id="5" name="Rendszerhasználó neve" dataDxfId="17"/>
-    <tableColumn id="6" name="Partnerszám" dataDxfId="16"/>
-    <tableColumn id="7" name="Felhasználási hely azonsító" dataDxfId="15"/>
-    <tableColumn id="8" name="Érintett elszámolási mérő gyári száma:" dataDxfId="14"/>
-    <tableColumn id="9" name="Születési név:" dataDxfId="13"/>
-    <tableColumn id="10" name="Anyja neve:" dataDxfId="12"/>
-    <tableColumn id="11" name="Születési hely, dátum:" dataDxfId="11"/>
-    <tableColumn id="12" name="Személyi igazolvány szám:" dataDxfId="10"/>
-    <tableColumn id="13" name="Felhasználó elérhetősége (tel. / e-mail):" dataDxfId="9"/>
-    <tableColumn id="14" name="Felhasználási helyen rendelkezésre álló teljesítmény: (pl. 3x32A, vagy 1x32 A)" dataDxfId="8"/>
-    <tableColumn id="15" name="Beépített termelői kapacitás kW-ban:" dataDxfId="7"/>
-    <tableColumn id="16" name="Termelői kapacitás csatlakoztatása:" dataDxfId="6"/>
-    <tableColumn id="17" name="Felhasználási helyen alkalmazott érintésvédelmi mód:" dataDxfId="5"/>
-    <tableColumn id="18" name="DC oldali villamos teljesítménye" dataDxfId="4"/>
-    <tableColumn id="19" name="Inverter" dataDxfId="3"/>
-    <tableColumn id="20" name="Levelezési cím" dataDxfId="2"/>
-    <tableColumn id="21" name="IKTATÓ" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Irányítószám" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Település" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Utca, házszám" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Magán/jogi személy" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rendszerhasználó neve" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partnerszám" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Felhasználási hely azonsító" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Érintett elszámolási mérő gyári száma:" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Születési név:" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Anyja neve:" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Születési hely, dátum:" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Személyi igazolvány szám:" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Felhasználó elérhetősége (tel. / e-mail):" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Felhasználási helyen rendelkezésre álló teljesítmény: (pl. 3x32A, vagy 1x32 A)" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Beépített termelői kapacitás kW-ban:" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Termelői kapacitás csatlakoztatása:" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Felhasználási helyen alkalmazott érintésvédelmi mód:" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="DC oldali villamos teljesítménye" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Inverter" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Levelezési cím" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IKTATÓ" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Táblázat2" displayName="Táblázat2" ref="B1:U2" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normál" dataCellStyle="Normál">
-  <autoFilter ref="B1:U2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Táblázat2" displayName="Táblázat2" ref="B1:U2" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="B1:U2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Irányítószám" dataDxfId="42" dataCellStyle="Normál"/>
-    <tableColumn id="2" name="Település" dataDxfId="41" dataCellStyle="Normál"/>
-    <tableColumn id="3" name="Utca, házszám" dataDxfId="40" dataCellStyle="Normál"/>
-    <tableColumn id="4" name="Magán/jogi személy" dataDxfId="39" dataCellStyle="Normál"/>
-    <tableColumn id="5" name="Rendszerhasználó neve" dataDxfId="38" dataCellStyle="Normál"/>
-    <tableColumn id="6" name="Partnerszám" dataDxfId="37" dataCellStyle="Normál"/>
-    <tableColumn id="7" name="Felhasználási hely azonsító" dataDxfId="36" dataCellStyle="Normál"/>
-    <tableColumn id="8" name="Érintett elszámolási mérő gyári száma:" dataDxfId="35" dataCellStyle="Normál"/>
-    <tableColumn id="9" name="Jogi személy elnevezése" dataDxfId="34" dataCellStyle="Normál"/>
-    <tableColumn id="10" name="Cégjegyzékszám/statisztikai számjel" dataDxfId="33" dataCellStyle="Normál"/>
-    <tableColumn id="11" name="Adószám" dataDxfId="32" dataCellStyle="Normál"/>
-    <tableColumn id="12" name="Székhely" dataDxfId="31" dataCellStyle="Normál"/>
-    <tableColumn id="13" name="Felhasználó elérhetősége (tel. / e-mail):" dataDxfId="30" dataCellStyle="Normál"/>
-    <tableColumn id="14" name="Felhasználási helyen rendelkezésre álló teljesítmény: (pl. 3x32A, vagy 1x32 A)" dataDxfId="29" dataCellStyle="Normál"/>
-    <tableColumn id="15" name="Beépített termelői kapacitás kW-ban:" dataDxfId="28" dataCellStyle="Normál"/>
-    <tableColumn id="16" name="Termelői kapacitás csatlakoztatása:" dataDxfId="27" dataCellStyle="Normál"/>
-    <tableColumn id="17" name="Felhasználási helyen alkalmazott érintésvédelmi mód:" dataDxfId="26" dataCellStyle="Normál"/>
-    <tableColumn id="18" name="DC oldali villamos teljesítménye" dataDxfId="25" dataCellStyle="Normál"/>
-    <tableColumn id="19" name="Inverter" dataDxfId="24" dataCellStyle="Normál"/>
-    <tableColumn id="20" name="Levelezési cím" dataDxfId="23" dataCellStyle="Normál"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Irányítószám" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Település" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Utca, házszám" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Magán/jogi személy" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Rendszerhasználó neve" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Partnerszám" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Felhasználási hely azonsító" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Érintett elszámolási mérő gyári száma:" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Jogi személy elnevezése" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Cégjegyzékszám/statisztikai számjel" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Adószám" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Székhely" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Felhasználó elérhetősége (tel. / e-mail):" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Felhasználási helyen rendelkezésre álló teljesítmény: (pl. 3x32A, vagy 1x32 A)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Beépített termelői kapacitás kW-ban:" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Termelői kapacitás csatlakoztatása:" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Felhasználási helyen alkalmazott érintésvédelmi mód:" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="DC oldali villamos teljesítménye" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Inverter" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Levelezési cím" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,13 +894,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,16 +1056,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1000576336</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>55</v>
+      </c>
+    </row>
     <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1176,35 +1235,28 @@
       <c r="S113" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Munka2!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E48</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1354,7 @@
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="14">
         <v>4220</v>
@@ -1364,82 +1416,31 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Munka2!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2 E4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Munka3"/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>